--- a/navegation.xlsx
+++ b/navegation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>TO</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>Credits</t>
   </si>
   <si>
@@ -45,6 +42,21 @@
   </si>
   <si>
     <t>BACK</t>
+  </si>
+  <si>
+    <t>Player Select</t>
+  </si>
+  <si>
+    <t>Level Select</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Play Level</t>
+  </si>
+  <si>
+    <t>Level Select + Save</t>
   </si>
 </sst>
 </file>
@@ -362,71 +374,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
